--- a/Experimentos/Analisis Métricas.xlsx
+++ b/Experimentos/Analisis Métricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/019bcfd77d9770ed/Documentos/MAGISTER/SEMINARIO II/Programa BN/tesis2BN/Experimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{88BB5612-E616-4069-97EE-01D9AB8DB8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D29847-D545-40CC-89CC-6C8D06E0C78C}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="13_ncr:1_{88BB5612-E616-4069-97EE-01D9AB8DB8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D9F653C-4947-4CA7-B88F-CE48A4EE4EEF}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-252" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D18EDC41-0F32-4E4C-833E-D13DFBCAE797}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D18EDC41-0F32-4E4C-833E-D13DFBCAE797}"/>
   </bookViews>
   <sheets>
     <sheet name="METRICAS" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="39">
   <si>
     <t>TEST</t>
   </si>
@@ -153,14 +153,24 @@
   <si>
     <t>Promedio</t>
   </si>
+  <si>
+    <t>Total Promedio de %</t>
+  </si>
+  <si>
+    <t>Total Desvest de %</t>
+  </si>
+  <si>
+    <t>Desvest de %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -277,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -318,12 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,12 +345,165 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="48">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3301,8 +3458,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{679F3C8B-5227-4B67-8904-4EB44862BB27}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:C14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{679F3C8B-5227-4B67-8904-4EB44862BB27}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:E15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
       <items count="3">
@@ -3376,14 +3533,22 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
+  <colFields count="2">
     <field x="1"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="4">
     <i>
       <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
     </i>
     <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
       <x/>
     </i>
   </colItems>
@@ -3391,9 +3556,66 @@
     <pageField fld="0" item="1" hier="-1"/>
     <pageField fld="2" item="0" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Promedio de %" fld="5" subtotal="average" baseField="4" baseItem="0" numFmtId="165"/>
+  <dataFields count="2">
+    <dataField name="Promedio de %" fld="5" subtotal="average" baseField="4" baseItem="0" numFmtId="9"/>
+    <dataField name="Desvest de %" fld="5" subtotal="stdDev" baseField="4" baseItem="0" numFmtId="9"/>
   </dataFields>
+  <formats count="5">
+    <format dxfId="46">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="3" count="0"/>
+          <reference field="4" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3704,10 +3926,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47241DF-FEDB-4DD1-83FF-A209D2CEF16C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I362" sqref="I362"/>
+      <selection activeCell="H374" sqref="H374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4940,7 +5162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -5060,7 +5282,7 @@
         <v>0.10638297872340401</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -5180,7 +5402,7 @@
         <v>0.10638297872340401</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -5300,7 +5522,7 @@
         <v>0.10752688172043</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -5420,7 +5642,7 @@
         <v>0.10752688172043</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -8540,7 +8762,7 @@
         <v>0.10695187165775399</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -8660,7 +8882,7 @@
         <v>0.10638297872340401</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>21</v>
       </c>
@@ -8780,7 +9002,7 @@
         <v>0.10638297872340401</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>21</v>
       </c>
@@ -8900,7 +9122,7 @@
         <v>0.10752688172043</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>21</v>
       </c>
@@ -9020,7 +9242,7 @@
         <v>0.10752688172043</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>21</v>
       </c>
@@ -10760,7 +10982,7 @@
         <v>0.92556018754438396</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>17</v>
       </c>
@@ -10780,7 +11002,7 @@
         <v>0.91711229946523998</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>17</v>
       </c>
@@ -10800,7 +11022,7 @@
         <v>0.73849980864906195</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>17</v>
       </c>
@@ -10820,7 +11042,7 @@
         <v>0.10427807486630999</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>17</v>
       </c>
@@ -10840,7 +11062,7 @@
         <v>0.90909090909090895</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>17</v>
       </c>
@@ -10860,7 +11082,7 @@
         <v>0.89241803278688503</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>17</v>
       </c>
@@ -10880,7 +11102,7 @@
         <v>0.97942297223734298</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>17</v>
       </c>
@@ -10900,7 +11122,7 @@
         <v>0.90909090909090895</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>17</v>
       </c>
@@ -10920,7 +11142,7 @@
         <v>0.58600299401197598</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>17</v>
       </c>
@@ -10938,18 +11160,67 @@
       </c>
       <c r="F361" s="22">
         <v>0.10695187165775399</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F362">
+        <f>_xlfn.STDEV.S(F62:F86)</f>
+        <v>0.29040003601724818</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F363" s="23">
+        <f>AVERAGE(F62:F86)</f>
+        <v>0.67857627431324363</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H367" s="22">
+        <v>0.88297872340425498</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H368" s="22">
+        <v>0.90425531914893598</v>
+      </c>
+    </row>
+    <row r="369" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H369" s="22">
+        <v>0.89247311827956899</v>
+      </c>
+    </row>
+    <row r="370" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H370" s="22">
+        <v>0.86021505376343999</v>
+      </c>
+    </row>
+    <row r="371" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H371" s="22">
+        <v>0.90322580645161199</v>
+      </c>
+    </row>
+    <row r="372" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H372" s="23">
+        <f>AVERAGE(H367:H371)</f>
+        <v>0.8886296042095625</v>
+      </c>
+    </row>
+    <row r="373" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H373">
+        <f>_xlfn.STDEV.S(H367:H371)</f>
+        <v>1.8105964615250013E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F361" xr:uid="{B47241DF-FEDB-4DD1-83FF-A209D2CEF16C}">
     <filterColumn colId="0">
       <filters>
-        <filter val="SI"/>
+        <filter val="NO"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="BDEU"/>
+        <filter val="BIC"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -10970,10 +11241,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0D8C6A-1DD7-46D8-92A8-5C50A9DA9714}">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A6:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10981,9 +11252,11 @@
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -10994,7 +11267,7 @@
     <col min="20" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -11003,7 +11276,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -11012,103 +11285,153 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="40">
+        <v>0.85229924502402132</v>
+      </c>
+      <c r="C9" s="40">
+        <v>2.4057125837197071E-2</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0.85229924502402132</v>
+      </c>
+      <c r="E9" s="39">
+        <v>2.4057125837197071E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="40">
+        <v>0.82978723404255295</v>
+      </c>
+      <c r="C10" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="39">
+        <v>0.82978723404255295</v>
+      </c>
+      <c r="E10" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="40">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="C11" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="E11" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="40">
+        <v>0.82795698924731098</v>
+      </c>
+      <c r="C12" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.82795698924731098</v>
+      </c>
+      <c r="E12" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="40">
+        <v>0.87096774193548299</v>
+      </c>
+      <c r="C13" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0.87096774193548299</v>
+      </c>
+      <c r="E13" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="40">
+        <v>0.88172043010752599</v>
+      </c>
+      <c r="C14" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0.88172043010752599</v>
+      </c>
+      <c r="E14" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="B15" s="39">
         <v>0.85229924502402132</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C15" s="39">
+        <v>2.4057125837197071E-2</v>
+      </c>
+      <c r="D15" s="39">
         <v>0.85229924502402132</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="23">
-        <v>0.82978723404255295</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0.82978723404255295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="23">
-        <v>0.85106382978723405</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.85106382978723405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="23">
-        <v>0.82795698924731098</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.82795698924731098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>4</v>
-      </c>
-      <c r="B12" s="23">
-        <v>0.87096774193548299</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0.87096774193548299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23">
-        <v>0.88172043010752599</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0.88172043010752599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="23">
-        <v>0.85229924502402132</v>
-      </c>
-      <c r="C14" s="23">
-        <v>0.85229924502402132</v>
+      <c r="E15" s="39">
+        <v>2.4057125837197071E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11121,8 +11444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BEDEBD-913E-4F53-AECD-D40CE31F4581}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11134,29 +11457,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="H1" s="35" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="H1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="24" t="s">
         <v>22</v>
       </c>
@@ -11166,10 +11489,10 @@
       <c r="E2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>1</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="35">
         <v>0.82978723404255295</v>
       </c>
     </row>
@@ -11189,33 +11512,33 @@
       <c r="E3" s="26">
         <v>0.8886296042095625</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="34">
         <v>2</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <v>0.85106382978723405</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="A4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="30">
         <v>0.63411568303430177</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <v>0.63411568303430177</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="30">
         <v>0.63411568303430177</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="34">
         <v>3</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="35">
         <v>0.82795698924731098</v>
       </c>
     </row>
@@ -11235,10 +11558,10 @@
       <c r="E5" s="26">
         <v>0.92461258024657744</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <v>4</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="35">
         <v>0.87096774193548299</v>
       </c>
     </row>
@@ -11258,10 +11581,10 @@
       <c r="E6" s="26">
         <v>0.8886296042095625</v>
       </c>
-      <c r="H6" s="36">
-        <v>5</v>
-      </c>
-      <c r="I6" s="37">
+      <c r="H6" s="34">
+        <v>5</v>
+      </c>
+      <c r="I6" s="35">
         <v>0.88172043010752599</v>
       </c>
     </row>
@@ -11281,10 +11604,10 @@
       <c r="E7" s="26">
         <v>0.59695161598776025</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="36">
         <v>0.85229924502402132</v>
       </c>
     </row>
@@ -11306,23 +11629,23 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="24" t="s">
         <v>22</v>
       </c>
@@ -11334,19 +11657,19 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="30">
         <v>0.84802104781514454</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>0.83088538091969721</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <v>0.85229924502402132</v>
       </c>
     </row>
